--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.2588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,916 +550,1246 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>352.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.63</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.3647</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5356</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8556</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3744</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3373</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>008370</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>9.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0831</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证医疗指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000336</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>农银研究精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008840</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦大消费混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008841</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦大消费混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>340006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴全全球视野股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009881</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512170</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>470009</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519008</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富优势精选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000173</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富美丽30混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>162412</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝中证医疗指数</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>502056</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001179</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>德邦大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008515</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富兰克林国海基本面优选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009556</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>兴全合丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>314.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.9469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>163402</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>兴全趋势投资混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>402.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>67.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.8632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003562</t>
+          <t>001511</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合C</t>
+          <t>兴全新视野灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>265.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>009556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>兴全合丰三年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004390</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合A</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004391</t>
+          <t>450002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合C</t>
+          <t>国富弹性市值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>54.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163402</t>
+          <t>470009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全趋势投资混合(LOF)</t>
+          <t>汇添富民营活力混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67.53</t>
+          <t>42.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>519008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>汇添富优势精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>30.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>008063</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>汇添富大盘核心资产增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>60.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1424</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460007</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞行业领先混合</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>49.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1395</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>46.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000175</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富高息债债券C</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7878</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>340006</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>兴全全球视野股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6762</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5921</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000336</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>农银研究精选混合</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4792</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>兴全绿色投资混合(LOF)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>31.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3820</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006167</t>
+          <t>000336</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合A</t>
+          <t>农银研究精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3815</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006168</t>
+          <t>008515</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合C</t>
+          <t>富兰克林国海基本面优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>28.83</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2304</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006396</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长信双利优选混合E</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>340006</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>兴全全球视野股票</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>340007</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴全社会责任混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8276</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>华宝中证医疗ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>450002</t>
+          <t>162412</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国富弹性市值混合</t>
+          <t>华宝中证医疗指数</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>87.29</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7160</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>长信金利趋势混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>470009</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合A</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>960014</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6129</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>000175</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>汇添富高息债债券C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5253</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2442,25 +3142,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006977</t>
+          <t>159828</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>农银汇理海棠三年定期开放混合</t>
+          <t>国泰中证医疗ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>5</v>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>502056</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发中证医疗指数（LOF）A</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009881</t>
+          <t>460007</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发中证医疗指数（LOF）C</t>
+          <t>华泰柏瑞行业领先混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001179</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>德邦大健康灵活配置混合</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>85.71</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>007287</t>
+          <t>519993</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票A</t>
+          <t>长信增利动态策略混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2610,25 +3370,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007288</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票C</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>502056</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>广发中证医疗指数（LOF）A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华宝中证医疗ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>009684</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>汇添富创新增长一年定期开放混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>5</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2732,15 +3532,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>6.65</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001511</t>
+          <t>008526</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
+          <t>华泰柏瑞行业精选混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>64.06</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>519008</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>汇添富优势精选混合</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>001179</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>德邦大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>519991</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>长信双利优选混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>159828</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国泰中证医疗ETF</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>98.42</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>006167</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>德邦乐享生活混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>519991</t>
+          <t>700003</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长信双利优选混合A</t>
+          <t>平安策略先锋混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>519995</t>
+          <t>004390</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>长信金利趋势混合</t>
+          <t>平安转型创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>76.89</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>5</v>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>161629</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融通中证精准医疗主题指数（LOF）</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>9</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>700003</t>
+          <t>009881</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>平安策略先锋混合</t>
+          <t>广发中证医疗指数（LOF）C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>78.51</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>162412</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华宝中证医疗指数</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -3142,25 +4092,35 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>008527</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>华泰柏瑞行业精选混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>5</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>8</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -3254,26 +4244,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>8</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3310,26 +4320,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>008063</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>汇添富大盘核心资产增长混合</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>10</v>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3338,26 +4358,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>161629</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>融通中证精准医疗主题指数（LOF）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -3366,26 +4396,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>004391</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>平安转型创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3394,26 +4434,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>006168</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
+          <t>德邦乐享生活混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>8</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3422,25 +4472,35 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>008515</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>富兰克林国海基本面优选混合</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3450,26 +4510,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>008526</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华泰柏瑞行业精选混合A</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>5</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3478,26 +4548,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>008527</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华泰柏瑞行业精选混合C</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>5</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3506,26 +4586,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>2</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3534,26 +4624,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>004953</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>兴全恒益债券C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>2</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3562,26 +4662,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>4</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3590,26 +4700,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>003562</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>6</v>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -3618,26 +4732,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>006396</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -3646,26 +4764,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>009556</t>
+          <t>960014</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>兴全合丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>5</v>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4708,7 +4709,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -4740,7 +4740,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -4772,7 +4771,6 @@
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>85.86</t>
@@ -4788,6 +4786,290 @@
       </c>
       <c r="H79" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.3883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5075,4 +5076,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5322,4 +5323,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5331,7 +5332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5342,17 +5343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5362,14 +5383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5378,14 +5421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.05</v>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5394,14 +5459,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>113</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="5">
@@ -5410,13 +5581,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>64.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5502,7 +5503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5513,17 +5514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5533,14 +5554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5549,14 +5592,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -5565,14 +5698,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>18.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -5581,14 +5714,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>113</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="6">
@@ -5597,13 +5730,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>64.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002044-美年健康.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>18.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>64.56</v>
       </c>
     </row>
@@ -583,6 +600,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +1869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +2115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +2399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4413,7 +5398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
